--- a/Outputs_figures/Table_TDA.xlsx
+++ b/Outputs_figures/Table_TDA.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RSF_NYCTRS\Outputs_figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAC1FE7-8123-450C-B0F5-BC60C1812E6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C364CE9A-A7C4-4DB5-AB4B-F15834F4673C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1560" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MA" sheetId="3" r:id="rId1"/>
     <sheet name="AL" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -345,23 +345,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,7 +681,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,16 +723,16 @@
     </row>
     <row r="3" spans="1:23" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -741,23 +741,23 @@
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10"/>
@@ -783,7 +783,7 @@
     </row>
     <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>2016</v>
       </c>
       <c r="C6" s="4"/>
@@ -801,11 +801,11 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
-        <f>V14</f>
+        <f t="shared" ref="H6:I8" si="1">V14</f>
         <v>0.43</v>
       </c>
       <c r="I6" s="5">
-        <f>W14</f>
+        <f t="shared" si="1"/>
         <v>0.43</v>
       </c>
       <c r="J6" s="1"/>
@@ -814,30 +814,30 @@
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>2030</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D8" si="1">S15</f>
-        <v>0.46089054246740585</v>
+        <f t="shared" ref="D7:D8" si="2">S15</f>
+        <v>0.4723341181058876</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0.51195763614761658</v>
+        <v>0.52402274199556176</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0.40983113017516731</v>
+        <v>0.42065328172139926</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
-        <f>V15</f>
-        <v>0.3307544985281336</v>
+        <f t="shared" si="1"/>
+        <v>0.33881203832178924</v>
       </c>
       <c r="I7" s="5">
-        <f>W15</f>
-        <v>0.29009355835041711</v>
+        <f t="shared" si="1"/>
+        <v>0.29773769478069662</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -845,30 +845,30 @@
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>2048</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.82068568849744716</v>
+        <f t="shared" si="2"/>
+        <v>0.867977583672918</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>0.98439443065891563</v>
+        <v>1.0369499762319172</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>0.65697694633597792</v>
+        <v>0.69900519111391746</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
-        <f>V16</f>
-        <v>0.41024301871576024</v>
+        <f t="shared" si="1"/>
+        <v>0.43263292136977388</v>
       </c>
       <c r="I8" s="7">
-        <f>W16</f>
-        <v>0.30783558624485552</v>
+        <f t="shared" si="1"/>
+        <v>0.32791730901826238</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -876,16 +876,16 @@
     </row>
     <row r="9" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1001,19 +1001,19 @@
         <v>2030</v>
       </c>
       <c r="S15">
-        <v>0.46089054246740585</v>
+        <v>0.4723341181058876</v>
       </c>
       <c r="T15">
-        <v>0.51195763614761658</v>
+        <v>0.52402274199556176</v>
       </c>
       <c r="U15">
-        <v>0.40983113017516731</v>
+        <v>0.42065328172139926</v>
       </c>
       <c r="V15">
-        <v>0.3307544985281336</v>
+        <v>0.33881203832178924</v>
       </c>
       <c r="W15">
-        <v>0.29009355835041711</v>
+        <v>0.29773769478069662</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1021,19 +1021,19 @@
         <v>2048</v>
       </c>
       <c r="S16">
-        <v>0.82068568849744716</v>
+        <v>0.867977583672918</v>
       </c>
       <c r="T16">
-        <v>0.98439443065891563</v>
+        <v>1.0369499762319172</v>
       </c>
       <c r="U16">
-        <v>0.65697694633597792</v>
+        <v>0.69900519111391746</v>
       </c>
       <c r="V16">
-        <v>0.41024301871576024</v>
+        <v>0.43263292136977388</v>
       </c>
       <c r="W16">
-        <v>0.30783558624485552</v>
+        <v>0.32791730901826238</v>
       </c>
     </row>
   </sheetData>
@@ -1094,16 +1094,16 @@
     </row>
     <row r="3" spans="1:23" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1112,23 +1112,23 @@
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:23" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>2016</v>
       </c>
       <c r="C6" s="4"/>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5">
-        <f>V14</f>
+        <f t="shared" ref="H6:I8" si="1">V14</f>
         <v>0.27229825334143071</v>
       </c>
       <c r="I6" s="5">
-        <f>W14</f>
+        <f t="shared" si="1"/>
         <v>0.27229825334143071</v>
       </c>
       <c r="J6" s="1"/>
@@ -1185,29 +1185,29 @@
     </row>
     <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>2030</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D8" si="1">S15</f>
+        <f t="shared" ref="D7:D8" si="2">S15</f>
         <v>0.44605631510062793</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" ref="E7:E8" si="2">T15</f>
+        <f t="shared" ref="E7:E8" si="3">T15</f>
         <v>0.49544249558681591</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F8" si="3">U15</f>
+        <f t="shared" ref="F7:F8" si="4">U15</f>
         <v>0.39667013461444006</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5">
-        <f>V15</f>
+        <f t="shared" si="1"/>
         <v>0.34250505983343371</v>
       </c>
       <c r="I7" s="5">
-        <f>W15</f>
+        <f t="shared" si="1"/>
         <v>0.2990080193229343</v>
       </c>
       <c r="J7" s="1"/>
@@ -1216,29 +1216,29 @@
     </row>
     <row r="8" spans="1:23" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>2048</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82068568849744672</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.98439443065891519</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.65697694633597759</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
-        <f>V16</f>
+        <f t="shared" si="1"/>
         <v>0.44869739108440976</v>
       </c>
       <c r="I8" s="7">
-        <f>W16</f>
+        <f t="shared" si="1"/>
         <v>0.33045343804144456</v>
       </c>
       <c r="J8" s="1"/>
@@ -1247,16 +1247,16 @@
     </row>
     <row r="9" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
